--- a/forecast_summary_B0BYBHW4SH.xlsx
+++ b/forecast_summary_B0BYBHW4SH.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" t="n">
         <v>69.54833594502534</v>
       </c>
       <c r="D2" t="n">
-        <v>261.0106813194312</v>
+        <v>255.6695263009684</v>
       </c>
       <c r="E2" t="n">
         <v>226</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" t="n">
         <v>4.706014607928886</v>
       </c>
       <c r="D3" t="n">
-        <v>193.2679996409811</v>
+        <v>194.4137630537201</v>
       </c>
       <c r="E3" t="n">
         <v>142</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" t="n">
         <v>-4.212818235964664</v>
       </c>
       <c r="D4" t="n">
-        <v>180.0109942329439</v>
+        <v>172.1140751788087</v>
       </c>
       <c r="E4" t="n">
         <v>160</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="n">
         <v>1.16083430198789</v>
       </c>
       <c r="D5" t="n">
-        <v>177.1697807311674</v>
+        <v>172.9616230131023</v>
       </c>
       <c r="E5" t="n">
         <v>131</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" t="n">
         <v>-0.1767199209364764</v>
       </c>
       <c r="D6" t="n">
-        <v>189.5196609847758</v>
+        <v>179.0806986673474</v>
       </c>
       <c r="E6" t="n">
         <v>132</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C7" t="n">
         <v>-4.484829263849532</v>
       </c>
       <c r="D7" t="n">
-        <v>196.789327838658</v>
+        <v>184.2835885976176</v>
       </c>
       <c r="E7" t="n">
         <v>140</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C8" t="n">
         <v>-9.208888718034355</v>
       </c>
       <c r="D8" t="n">
-        <v>162.0822967804033</v>
+        <v>170.1327916842837</v>
       </c>
       <c r="E8" t="n">
         <v>139</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" t="n">
         <v>-20.28537970533052</v>
       </c>
       <c r="D9" t="n">
-        <v>162.5736497832713</v>
+        <v>156.9982691791781</v>
       </c>
       <c r="E9" t="n">
         <v>140</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
         <v>-38.92598975836052</v>
       </c>
       <c r="D10" t="n">
-        <v>145.7486124341916</v>
+        <v>148.1366824725331</v>
       </c>
       <c r="E10" t="n">
         <v>147</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
         <v>-58.95802210680235</v>
       </c>
       <c r="D11" t="n">
-        <v>121.2315419991364</v>
+        <v>122.6409535745206</v>
       </c>
       <c r="E11" t="n">
         <v>181</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-79.7658102801804</v>
       </c>
       <c r="D12" t="n">
-        <v>112.8128625015221</v>
+        <v>108.1308811182942</v>
       </c>
       <c r="E12" t="n">
         <v>194</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-108.3485368702678</v>
       </c>
       <c r="D13" t="n">
-        <v>69.84849017484709</v>
+        <v>80.26254641377686</v>
       </c>
       <c r="E13" t="n">
         <v>191</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-142.4689980457903</v>
       </c>
       <c r="D14" t="n">
-        <v>42.39041824439469</v>
+        <v>35.93276274625475</v>
       </c>
       <c r="E14" t="n">
         <v>193</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-163.7024944952029</v>
       </c>
       <c r="D15" t="n">
-        <v>15.04377093706174</v>
+        <v>3.608392108981496</v>
       </c>
       <c r="E15" t="n">
         <v>191</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-159.3542861964899</v>
       </c>
       <c r="D16" t="n">
-        <v>38.55451101417075</v>
+        <v>20.51611685128009</v>
       </c>
       <c r="E16" t="n">
         <v>190</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-144.973174440306</v>
       </c>
       <c r="D17" t="n">
-        <v>41.85483443184494</v>
+        <v>29.32492990600599</v>
       </c>
       <c r="E17" t="n">
         <v>190</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-149.4842145493079</v>
       </c>
       <c r="D18" t="n">
-        <v>30.16264906615745</v>
+        <v>43.230032585204</v>
       </c>
       <c r="E18" t="n">
         <v>186</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-176.7975612264956</v>
       </c>
       <c r="D19" t="n">
-        <v>20.99340718381263</v>
+        <v>14.42434546191907</v>
       </c>
       <c r="E19" t="n">
         <v>180</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-197.9548639698004</v>
       </c>
       <c r="D20" t="n">
-        <v>-15.27993866471654</v>
+        <v>-22.71655953001231</v>
       </c>
       <c r="E20" t="n">
         <v>188</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-190.219470230539</v>
       </c>
       <c r="D21" t="n">
-        <v>7.661325373454229</v>
+        <v>-1.284158849421701</v>
       </c>
       <c r="E21" t="n">
         <v>178</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650 GAMING X AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>668</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>618</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>361</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>144</t>
         </is>
       </c>
     </row>
